--- a/final.xlsx
+++ b/final.xlsx
@@ -14,38 +14,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="162">
+  <si>
+    <t>EM2028主板组件V1.11</t>
+  </si>
+  <si>
+    <t>表贴NPN开关三极管PMBT3904</t>
+  </si>
+  <si>
+    <t>NPN,SOT-23,品牌Nexperia</t>
+  </si>
+  <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t>Q4,Q3,Q5,Q6</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
   <si>
     <t>EM2027主板组件V21</t>
   </si>
   <si>
-    <t>表贴NPN开关三极管PMBT3904</t>
-  </si>
-  <si>
-    <t>NPN,SOT-23,品牌Nexperia</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
     <t>Q1 Q6 Q5 Q4 Q3</t>
   </si>
   <si>
-    <t>SMT</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>CM3103B对焦板组件V11</t>
   </si>
   <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>CM3103BCMOS板组件V11</t>
-  </si>
-  <si>
     <t>MOS管Si2303CDS-T1-GE3</t>
   </si>
   <si>
@@ -73,7 +76,7 @@
     <t>ESD防护阵列,VBR 6V,Ipp 4.7A,12KV,Cin 0.55pF,SOT23-6L,品牌AMAZING</t>
   </si>
   <si>
-    <t>U17 U16</t>
+    <t>U4</t>
   </si>
   <si>
     <t>表贴电阻RS03K104JT/RTT03104JTP(100K)</t>
@@ -109,133 +112,127 @@
     <t>R5, R6</t>
   </si>
   <si>
+    <t>表贴电阻RC02W470JT/RTT02470JTH(47R)</t>
+  </si>
+  <si>
+    <t>47R,0402,5%,1/16W</t>
+  </si>
+  <si>
+    <t>表贴电阻RC02W100JT/RTT02100JTH(10R)</t>
+  </si>
+  <si>
+    <t>10R,0402,5%,1/16W</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>CM32CMOS板组件V30</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>表贴电阻RC02W152JT/RTT02152JTH(1.5K)</t>
+  </si>
+  <si>
+    <t>1.5K,0402,5%,1/16W</t>
+  </si>
+  <si>
+    <t>R29,R30,R48,R47,R34</t>
+  </si>
+  <si>
+    <t>表贴电阻RC02W151JT/RTT02151JTH(150R)</t>
+  </si>
+  <si>
+    <t>150R,0402,5%,1/16W</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>表贴电阻RC02000JT/RTT02000JTH(0R)</t>
+  </si>
+  <si>
+    <t>0R,0402,1A,〈50mR,1/16W</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>表贴电阻RC02W104JT/RTT02104JTH(100K)</t>
+  </si>
+  <si>
+    <t>100K,0402,5%,1/16W</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R14,R16</t>
+  </si>
+  <si>
+    <t>表贴电阻RC02W102JT/RTT02102JTH(1K)</t>
+  </si>
+  <si>
+    <t>1K,0402,5%,1/16W</t>
+  </si>
+  <si>
+    <t>R1,R2,R13,R15</t>
+  </si>
+  <si>
     <t>MB4000主板组件V11</t>
   </si>
   <si>
-    <t>表贴电阻RC02W470JT/RTT02470JTH(47R)</t>
-  </si>
-  <si>
-    <t>47R,0402,5%,1/16W</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>表贴电阻RC02W100JT/RTT02100JTH(10R)</t>
-  </si>
-  <si>
-    <t>10R,0402,5%,1/16W</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>EM2028主板组件V1.11</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>表贴电阻RC02W152JT/RTT02152JTH(1.5K)</t>
-  </si>
-  <si>
-    <t>1.5K,0402,5%,1/16W</t>
-  </si>
-  <si>
-    <t>R58 R60 R59 R66 R67</t>
-  </si>
-  <si>
-    <t>表贴电阻RC02W151JT/RTT02151JTH(150R)</t>
-  </si>
-  <si>
-    <t>150R,0402,5%,1/16W</t>
-  </si>
-  <si>
-    <t>R19 R20 R27</t>
-  </si>
-  <si>
-    <t>表贴电阻RC02000JT/RTT02000JTH(0R)</t>
-  </si>
-  <si>
-    <t>0R,0402,1A,〈50mR,1/16W</t>
-  </si>
-  <si>
-    <t>R63 R64 R38 C70 R65</t>
-  </si>
-  <si>
-    <t>表贴电阻RC02W104JT/RTT02104JTH(100K)</t>
-  </si>
-  <si>
-    <t>100K,0402,5%,1/16W</t>
-  </si>
-  <si>
-    <t>R61 R32 R34 R42 R35</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>表贴电阻RC02W102JT/RTT02102JTH(1K)</t>
-  </si>
-  <si>
-    <t>1K,0402,5%,1/16W</t>
-  </si>
-  <si>
     <t>R21</t>
   </si>
   <si>
-    <t>R30 R28 R31</t>
-  </si>
-  <si>
     <t>表贴电阻RC02W103JT/RTT02103JTH(10K)</t>
   </si>
   <si>
     <t>10K,0402,5%,1/16W</t>
   </si>
   <si>
+    <t>R3,R4,R5,R6,R12,R17</t>
+  </si>
+  <si>
     <t>R4 R3 R5 R24 R6 R1 R23 R2 R26 R25 R7 R8 R38</t>
   </si>
   <si>
-    <t>R55 R50 R54 R24 R25 R47 R39 R49 R48 R18 R17 R20 R53 R45 R46 R76 R77 R78 R79 C64</t>
-  </si>
-  <si>
     <t>表贴电阻RC02W101JT/RTT02101JTH(100R)</t>
   </si>
   <si>
     <t>100R,0402,5%,1/16W</t>
   </si>
   <si>
+    <t>R14,R16,R12,R13,R4,R5,R15,R42,R6,R20,R3,R19,R10,R11,R9</t>
+  </si>
+  <si>
     <t>R10 R9 R11 R12 R13 R16 R15 R14 R18</t>
   </si>
   <si>
-    <t>R11 R13 R12 R10 R3 R2 R9 R14 R15 R62 R16 R51 R52 R23 R8 R5 R1 R4 R7</t>
-  </si>
-  <si>
-    <t>R14,R16,R12,R13,R4,R5,R15,R42,R6,R20,R3,R19,R10,R11,R9</t>
-  </si>
-  <si>
     <t>表贴电阻RC02W330JT/RTT02330JTH(33R)</t>
   </si>
   <si>
     <t>33R,0402,5%,1/16W</t>
   </si>
   <si>
+    <t>R26,R27,R46,R45,R54,R55</t>
+  </si>
+  <si>
+    <t>R8,R9</t>
+  </si>
+  <si>
     <t>R29 R34 R35 R39 R36 R37</t>
   </si>
   <si>
-    <t>R72 R57 R56 R74 R73 R75 R6</t>
-  </si>
-  <si>
-    <t>R26,R27,R46,R45,R54,R55</t>
-  </si>
-  <si>
     <t>排阻RCMT08W101JT/RTA02-4D101JTP(100R)</t>
   </si>
   <si>
     <t>100R,0402,8端,5%,1/16W</t>
   </si>
   <si>
-    <t>RP4 RP2 RP1 RP3 RP6 RP9 RP10 RP5 RP7 RP8</t>
+    <t>RP1,RP2</t>
   </si>
   <si>
     <t>表贴陶瓷电容C2012X5R1E225KT/CL21A225KAFNNNE(2.2UF)</t>
@@ -256,18 +253,18 @@
     <t>10uf,1206,X5R,16V,±10%,品牌TDK/三星</t>
   </si>
   <si>
+    <t>C39,C36,C40,C37,C89,C29</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>C72 C31 C32 C33 C53 C34</t>
   </si>
   <si>
     <t>C6 C3 C2 C1 C4 C84 C83 C5 C8 C7</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C39,C36,C40,C37,C89,C29</t>
-  </si>
-  <si>
     <t>表贴陶瓷电容0603CG100J500NT/CL10C100JB8NNNC(10PF)</t>
   </si>
   <si>
@@ -301,73 +298,73 @@
     <t>10PF,0402,COG,50V,±0.5PF(±0.25PF)</t>
   </si>
   <si>
+    <t>C53</t>
+  </si>
+  <si>
     <t>C1 C2 C84 C89 C90 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C85 C86 C87 C88 C91</t>
   </si>
   <si>
-    <t>C162 C59 C159 C58 C160 C164 C168 C152 C60 C61 C161 C166 C163 C167 C153 C165</t>
-  </si>
-  <si>
     <t>陶瓷电容C1005X5R1C104KT/CL05B104KO5NNNC(100NF)</t>
   </si>
   <si>
     <t>100nF,0402,X5R,16V,±10%,品牌TDK/SAMSUNG</t>
   </si>
   <si>
+    <t>C16,C15,C22,C92,C21,C2,C1,C3,C17,C18,C19</t>
+  </si>
+  <si>
     <t>C25 C27 C23 C30 C20 C19 C26 C79 C80 C75 C29 C24 C28 C73 C21 C74 C22 C82 C83</t>
   </si>
   <si>
-    <t>C110 C111 C107 C108 C109 C95 C94 C106 C105 C118 C91 C120 C119 C128 C121 C104 C130 C129 C92 C93 C90 C103</t>
-  </si>
-  <si>
     <t>陶瓷电容C1005COG1H330JT/CL05C330JB5NNNC(33PF)</t>
   </si>
   <si>
     <t>33PF,0402,COG,50V,±5%,品牌TDK/SAMSUNG</t>
   </si>
   <si>
+    <t>C46,C47,C23,C24,C25,C20,C93,C8,C10,C27,C28,C48,C45,C83,C38,C94</t>
+  </si>
+  <si>
+    <t>C6,C10</t>
+  </si>
+  <si>
     <t>C78 C67 C66 C47 C41 C46 C69 C68 C70 C65 C64 C43 C71 C40 C38 C39 C45 C42 C44 C81 C37 C35 C48 C63 C62 C50 C49 C36</t>
   </si>
   <si>
-    <t>C35 C41 C42 C34 C36 C39 C38 C37 C40 C62 C140 C141 C65 C66 C31 C33 C143 C43 C142 C45 C32 C63 C11 C57 C44 C69 C67 C68 C54 C17 C18 C9 C16 C15 C10 C56 C13 C27 C28 C26 C12 C19 C30 C29</t>
-  </si>
-  <si>
-    <t>C46,C47,C23,C24,C25,C20,C93,C8,C10,C27,C28,C48,C45,C83,C38,C94</t>
-  </si>
-  <si>
     <t>陶瓷电容CL05B103KB5NNNC(10nf)</t>
   </si>
   <si>
     <t>10nf,50V,0402,X7R,±10%,品牌TDK/SAMSUNG</t>
   </si>
   <si>
+    <t>C6,C7,C5,C4,C52,C41,C43,C14,C13,C44,C42,C62,C68,C59,C66,C56,C76,C78,C74,C70,C72,C64,C57,C60,C54,C9,C90,C58,C61,C55,C63,C65,C80,C87,C85,C79,C88,C86,C67,C82,C84,C81,C91,C71,C69,C73 C77 C75</t>
+  </si>
+  <si>
+    <t>C7,C8,C9</t>
+  </si>
+  <si>
     <t>C18 C14 C55 C16 C13 C17 C15 C57 C56</t>
   </si>
   <si>
-    <t>C46 C133 C148 C123 C131 C132 C52 C51 C134 C48 C144 C135 C149 C53 C50 C47 C49 C124</t>
-  </si>
-  <si>
-    <t>C6,C7,C5,C4,C52,C41,C43,C14,C13,C44,C42,C62,C68,C59,C66,C56,C76,C78,C74,C70,C72,C64,C57,C60,C54,C9,C90,C58,C61,C55,C63,C65,C80,C87,C85,C79,C88,C86,C67,C82,C84,C81,C91,C71,C69,C73 C77 C75</t>
-  </si>
-  <si>
     <t>陶瓷电容C1005X5R0J105KT/CL05A105KQ5NNNC(1UF)</t>
   </si>
   <si>
     <t>1UF,0402,X5R,6.3V,±10%,品牌TDK/SAMSUNG</t>
   </si>
   <si>
-    <t>C114 C89 C117 C74 C73 C78 C75 C126 C71 C77 C76 C88 C87 C127 C122</t>
-  </si>
-  <si>
     <t>C35,C34,C30,C50,C49,C51,C33,C26,C32,C31,C96</t>
   </si>
   <si>
+    <t>C4,C5</t>
+  </si>
+  <si>
     <t>表贴电感PT30K181M2U2012(2.2UH)</t>
   </si>
   <si>
     <t>功率电感,2.2UH,±20%,0.13Ω,1.22A</t>
   </si>
   <si>
-    <t>L13 L14</t>
+    <t>L29,L28</t>
   </si>
   <si>
     <t>磁珠CBW160808U600T</t>
@@ -376,27 +373,27 @@
     <t>0603,阻抗60Ω,1000mA,品牌FH</t>
   </si>
   <si>
+    <t>L26,L7,L13,L8,L12,L27,L25,L19,L4,L9,L10</t>
+  </si>
+  <si>
+    <t>L1, L2</t>
+  </si>
+  <si>
     <t>L1 L2 L3 L4</t>
   </si>
   <si>
     <t>L11 L5 L6 L10 L2 L9 L3 L12 L8 L7 L4</t>
   </si>
   <si>
+    <t>滤波器CNF20C101S-TM(N)</t>
+  </si>
+  <si>
+    <t>CNF滤波器,2*1.25,+50~-20%,50V,0.4A</t>
+  </si>
+  <si>
     <t>L1</t>
   </si>
   <si>
-    <t>L26,L7,L13,L8,L12,L27,L25,L19,L4,L9,L10</t>
-  </si>
-  <si>
-    <t>滤波器CNF20C101S-TM(N)</t>
-  </si>
-  <si>
-    <t>CNF滤波器,2*1.25,+50~-20%,50V,0.4A</t>
-  </si>
-  <si>
-    <t>L15</t>
-  </si>
-  <si>
     <t>CIT蜂鸣器转接板组件(R)V11</t>
   </si>
   <si>
@@ -412,21 +409,21 @@
     <t>B</t>
   </si>
   <si>
+    <t>FM100SP转接板组件V30</t>
+  </si>
+  <si>
     <t>表贴插座14PIN上(SFV14R-2STE1HLF）</t>
   </si>
   <si>
     <t>接插件,14PIN上,0.5MM,50V,0.5A,60mΩ</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>FM100SP转接板组件V30</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
+    <t>J2,J4</t>
+  </si>
+  <si>
     <t>表贴插座29PIN上 CF20291U0RG</t>
   </si>
   <si>
@@ -439,7 +436,7 @@
     <t>1050030011[待停]表贴插座29PIN上 (52435-2971)连接器,29PIN上,0.5MM,50V,0.5A,60mΩ（主料1050030054）,</t>
   </si>
   <si>
-    <t>NQuire202P-C-ILTS,信息终端裸机,V2.0</t>
+    <t>NLS-FM420-00,固定式条码扫描器裸机,V1.01</t>
   </si>
   <si>
     <t>螺丝+P1.7*4TP2锌黑Cr3+</t>
@@ -472,7 +469,7 @@
     <t>电源管理芯片,3 Buck,5 LDO LLP40</t>
   </si>
   <si>
-    <t>U13</t>
+    <t>U6</t>
   </si>
   <si>
     <t>芯片SP3232EEA</t>
@@ -481,16 +478,13 @@
     <t>串口转换芯片,3.0－5.5V,2驱动,2接收,SSOP16</t>
   </si>
   <si>
-    <t>U19</t>
+    <t>U2</t>
   </si>
   <si>
     <t>芯片SN74LVC1G08DBVR</t>
   </si>
   <si>
     <t>与门,SOT-23-5</t>
-  </si>
-  <si>
-    <t>U2</t>
   </si>
   <si>
     <t>柔性电缆14PIN-40mm</t>
@@ -845,7 +839,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1">
-        <v>2000110001</v>
+        <v>2000120013</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -866,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="H1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1">
         <v>0.5</v>
@@ -883,7 +877,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>2040120002</v>
+        <v>2000110001</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -904,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>0.5</v>
@@ -921,7 +915,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>2040120001</v>
+        <v>2040120002</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -948,7 +942,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
         <v>5</v>
@@ -959,7 +953,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>2000110001</v>
+        <v>2000120013</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -968,25 +962,25 @@
         <v>1010030002</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0.5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>5</v>
@@ -997,7 +991,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>2040120002</v>
+        <v>2000110001</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1006,13 +1000,13 @@
         <v>1010030002</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -1035,7 +1029,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>2040120001</v>
+        <v>2040120002</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1044,14 +1038,14 @@
         <v>1010030002</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>5</v>
@@ -1076,20 +1070,20 @@
         <v>2040150004</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1010030004</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1094,7 @@
         <v>0.5</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
         <v>5</v>
@@ -1111,7 +1105,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>2000110001</v>
+        <v>2000120013</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1120,25 +1114,25 @@
         <v>1010050019</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0.5</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
         <v>5</v>
@@ -1152,20 +1146,20 @@
         <v>2040120002</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1020030025</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
@@ -1176,13 +1170,13 @@
         <v>0.5</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1190,20 +1184,20 @@
         <v>2090020014</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1020030120</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -1214,7 +1208,7 @@
         <v>0.5</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
         <v>5</v>
@@ -1228,19 +1222,19 @@
         <v>2040120002</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>1020030122</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
@@ -1252,21 +1246,21 @@
         <v>0.5</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" t="s">
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>2090020025</v>
+        <v>2000120013</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>1020040037</v>
@@ -1290,7 +1284,7 @@
         <v>0.5</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
         <v>5</v>
@@ -1301,7 +1295,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>2000110001</v>
+        <v>2000120013</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1310,25 +1304,25 @@
         <v>1020040038</v>
       </c>
       <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13" t="s">
         <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0.5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>37</v>
       </c>
       <c r="K13" t="s">
         <v>5</v>
@@ -1339,22 +1333,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>2000120013</v>
+        <v>2040150001</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1020040038</v>
       </c>
       <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
@@ -1366,7 +1360,7 @@
         <v>0.5</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
         <v>5</v>
@@ -1377,7 +1371,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>2000110001</v>
+        <v>2000120013</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1386,25 +1380,25 @@
         <v>1020040039</v>
       </c>
       <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15" t="s">
         <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>0.5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>42</v>
       </c>
       <c r="K15" t="s">
         <v>5</v>
@@ -1415,34 +1409,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>2090020025</v>
+        <v>2040150001</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>1020040061</v>
       </c>
       <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="J16" t="s">
         <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>0.5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>45</v>
       </c>
       <c r="K16" t="s">
         <v>5</v>
@@ -1453,34 +1447,34 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>2000110001</v>
+        <v>2040150001</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>1020040062</v>
       </c>
       <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17" t="s">
         <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>0.5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>48</v>
       </c>
       <c r="K17" t="s">
         <v>5</v>
@@ -1491,142 +1485,142 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>2000110001</v>
+        <v>2040150004</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>1020040064</v>
       </c>
       <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
         <v>49</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="J18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>0.5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>51</v>
-      </c>
       <c r="K18" t="s">
         <v>5</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>2040150004</v>
+        <v>2040150001</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>1020040064</v>
       </c>
       <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
         <v>3</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0.5</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s">
         <v>5</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>2090020025</v>
+        <v>2040150001</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>1020040065</v>
       </c>
       <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+      <c r="J20" t="s">
         <v>54</v>
       </c>
-      <c r="F20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0.5</v>
-      </c>
-      <c r="J20" t="s">
-        <v>55</v>
-      </c>
       <c r="K20" t="s">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>2000110001</v>
+        <v>2090020025</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>1020040065</v>
       </c>
       <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
         <v>53</v>
       </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0.5</v>
@@ -1638,15 +1632,15 @@
         <v>5</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>2090020025</v>
+        <v>2040150001</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>1020040066</v>
@@ -1664,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>0.5</v>
@@ -1676,15 +1670,15 @@
         <v>5</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>2000110001</v>
+        <v>2090020025</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>1020040066</v>
@@ -1702,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I23">
         <v>0.5</v>
@@ -1714,15 +1708,15 @@
         <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>2090020025</v>
+        <v>2000120013</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>1020040067</v>
@@ -1740,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I24">
         <v>0.5</v>
@@ -1757,10 +1751,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>2000110001</v>
+        <v>2040150004</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>1020040067</v>
@@ -1778,13 +1772,13 @@
         <v>3</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0.5</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="K25" t="s">
         <v>5</v>
@@ -1795,10 +1789,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>2000120013</v>
+        <v>2090020025</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>1020040067</v>
@@ -1816,13 +1810,13 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <v>0.5</v>
       </c>
       <c r="J26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
         <v>5</v>
@@ -1833,34 +1827,34 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>2090020025</v>
+        <v>2000120013</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>1020040069</v>
       </c>
       <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
+      </c>
+      <c r="J27" t="s">
         <v>67</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>0.5</v>
-      </c>
-      <c r="J27" t="s">
-        <v>68</v>
       </c>
       <c r="K27" t="s">
         <v>5</v>
@@ -1871,34 +1865,34 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>2000110001</v>
+        <v>2040150001</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>1020040069</v>
       </c>
       <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
         <v>66</v>
       </c>
-      <c r="E28" t="s">
-        <v>67</v>
-      </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
         <v>3</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0.5</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K28" t="s">
         <v>5</v>
@@ -1909,22 +1903,22 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>2000120013</v>
+        <v>2090020025</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>1020040069</v>
       </c>
       <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
         <v>66</v>
       </c>
-      <c r="E29" t="s">
-        <v>67</v>
-      </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" t="s">
         <v>3</v>
@@ -1936,7 +1930,7 @@
         <v>0.5</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s">
         <v>5</v>
@@ -1947,34 +1941,34 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>2000110001</v>
+        <v>2040150001</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>1020050010</v>
       </c>
       <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
         <v>71</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0.5</v>
+      </c>
+      <c r="J30" t="s">
         <v>72</v>
-      </c>
-      <c r="F30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>10</v>
-      </c>
-      <c r="I30">
-        <v>0.5</v>
-      </c>
-      <c r="J30" t="s">
-        <v>73</v>
       </c>
       <c r="K30" t="s">
         <v>5</v>
@@ -1988,19 +1982,19 @@
         <v>2090020025</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>1030020001</v>
       </c>
       <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" t="s">
         <v>74</v>
       </c>
-      <c r="E31" t="s">
-        <v>75</v>
-      </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
         <v>3</v>
@@ -2012,7 +2006,7 @@
         <v>0.5</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s">
         <v>5</v>
@@ -2026,19 +2020,19 @@
         <v>2000110001</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>1030020001</v>
       </c>
       <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
         <v>74</v>
       </c>
-      <c r="E32" t="s">
-        <v>75</v>
-      </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
         <v>3</v>
@@ -2050,7 +2044,7 @@
         <v>0.5</v>
       </c>
       <c r="J32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s">
         <v>5</v>
@@ -2061,34 +2055,34 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>2090020025</v>
+        <v>2000120013</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>1030020006</v>
       </c>
       <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
         <v>78</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>0.5</v>
+      </c>
+      <c r="J33" t="s">
         <v>79</v>
-      </c>
-      <c r="F33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33">
-        <v>0.5</v>
-      </c>
-      <c r="J33" t="s">
-        <v>80</v>
       </c>
       <c r="K33" t="s">
         <v>5</v>
@@ -2099,34 +2093,34 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>2000110001</v>
+        <v>2040150001</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>1030020006</v>
       </c>
       <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
         <v>78</v>
       </c>
-      <c r="E34" t="s">
-        <v>79</v>
-      </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
         <v>3</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0.5</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s">
         <v>5</v>
@@ -2137,34 +2131,34 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>2040120001</v>
+        <v>2090020025</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>1030020006</v>
       </c>
       <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" t="s">
         <v>78</v>
       </c>
-      <c r="E35" t="s">
-        <v>79</v>
-      </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
         <v>3</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I35">
         <v>0.5</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
         <v>5</v>
@@ -2175,34 +2169,34 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>2000120013</v>
+        <v>2000110001</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>1030020006</v>
       </c>
       <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
         <v>78</v>
       </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
         <v>3</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I36">
         <v>0.5</v>
       </c>
       <c r="J36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s">
         <v>5</v>
@@ -2216,19 +2210,19 @@
         <v>2090020014</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>1030040028</v>
       </c>
       <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" t="s">
         <v>84</v>
       </c>
-      <c r="E37" t="s">
-        <v>85</v>
-      </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s">
         <v>3</v>
@@ -2240,7 +2234,7 @@
         <v>0.5</v>
       </c>
       <c r="J37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s">
         <v>5</v>
@@ -2254,31 +2248,31 @@
         <v>2090020025</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>1030040032</v>
       </c>
       <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" t="s">
         <v>87</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>0.5</v>
+      </c>
+      <c r="J38" t="s">
         <v>88</v>
-      </c>
-      <c r="F38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <v>0.5</v>
-      </c>
-      <c r="J38" t="s">
-        <v>89</v>
       </c>
       <c r="K38" t="s">
         <v>5</v>
@@ -2292,19 +2286,19 @@
         <v>2090020025</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>1030050021</v>
       </c>
       <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" t="s">
         <v>90</v>
       </c>
-      <c r="E39" t="s">
-        <v>91</v>
-      </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
         <v>3</v>
@@ -2316,7 +2310,7 @@
         <v>0.5</v>
       </c>
       <c r="J39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s">
         <v>5</v>
@@ -2327,34 +2321,34 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>2090020025</v>
+        <v>2000120013</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>1030050024</v>
       </c>
       <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
         <v>93</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0.5</v>
+      </c>
+      <c r="J40" t="s">
         <v>94</v>
-      </c>
-      <c r="F40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>20</v>
-      </c>
-      <c r="I40">
-        <v>0.5</v>
-      </c>
-      <c r="J40" t="s">
-        <v>95</v>
       </c>
       <c r="K40" t="s">
         <v>5</v>
@@ -2365,34 +2359,34 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>2000110001</v>
+        <v>2090020025</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>1030050024</v>
       </c>
       <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
         <v>93</v>
       </c>
-      <c r="E41" t="s">
-        <v>94</v>
-      </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
         <v>3</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I41">
         <v>0.5</v>
       </c>
       <c r="J41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s">
         <v>5</v>
@@ -2403,34 +2397,34 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>2090020025</v>
+        <v>2000120013</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>1030050025</v>
       </c>
       <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
         <v>97</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42" t="s">
         <v>98</v>
-      </c>
-      <c r="F42" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42">
-        <v>19</v>
-      </c>
-      <c r="I42">
-        <v>0.5</v>
-      </c>
-      <c r="J42" t="s">
-        <v>99</v>
       </c>
       <c r="K42" t="s">
         <v>5</v>
@@ -2441,34 +2435,34 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>2000110001</v>
+        <v>2090020025</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>1030050025</v>
       </c>
       <c r="D43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" t="s">
         <v>97</v>
       </c>
-      <c r="E43" t="s">
-        <v>98</v>
-      </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
         <v>3</v>
       </c>
       <c r="H43">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I43">
         <v>0.5</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s">
         <v>5</v>
@@ -2479,34 +2473,34 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>2090020025</v>
+        <v>2000120013</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>1030050027</v>
       </c>
       <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
         <v>101</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="I44">
+        <v>0.5</v>
+      </c>
+      <c r="J44" t="s">
         <v>102</v>
-      </c>
-      <c r="F44" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <v>28</v>
-      </c>
-      <c r="I44">
-        <v>0.5</v>
-      </c>
-      <c r="J44" t="s">
-        <v>103</v>
       </c>
       <c r="K44" t="s">
         <v>5</v>
@@ -2517,34 +2511,34 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>2000110001</v>
+        <v>2040150001</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>1030050027</v>
       </c>
       <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
         <v>101</v>
       </c>
-      <c r="E45" t="s">
-        <v>102</v>
-      </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
       </c>
       <c r="H45">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>0.5</v>
       </c>
       <c r="J45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K45" t="s">
         <v>5</v>
@@ -2555,34 +2549,34 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>2000120013</v>
+        <v>2090020025</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C46">
         <v>1030050027</v>
       </c>
       <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
         <v>101</v>
       </c>
-      <c r="E46" t="s">
-        <v>102</v>
-      </c>
       <c r="F46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
         <v>3</v>
       </c>
       <c r="H46">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I46">
         <v>0.5</v>
       </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K46" t="s">
         <v>5</v>
@@ -2593,34 +2587,34 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>2090020025</v>
+        <v>2000120013</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>1030050028</v>
       </c>
       <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
         <v>106</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>48</v>
+      </c>
+      <c r="I47">
+        <v>0.5</v>
+      </c>
+      <c r="J47" t="s">
         <v>107</v>
-      </c>
-      <c r="F47" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47">
-        <v>9</v>
-      </c>
-      <c r="I47">
-        <v>0.5</v>
-      </c>
-      <c r="J47" t="s">
-        <v>108</v>
       </c>
       <c r="K47" t="s">
         <v>5</v>
@@ -2631,34 +2625,34 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>2000110001</v>
+        <v>2040150001</v>
       </c>
       <c r="B48" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C48">
         <v>1030050028</v>
       </c>
       <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
         <v>106</v>
       </c>
-      <c r="E48" t="s">
-        <v>107</v>
-      </c>
       <c r="F48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G48" t="s">
         <v>3</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>0.5</v>
       </c>
       <c r="J48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K48" t="s">
         <v>5</v>
@@ -2669,34 +2663,34 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
-        <v>2000120013</v>
+        <v>2090020025</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C49">
         <v>1030050028</v>
       </c>
       <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
         <v>106</v>
       </c>
-      <c r="E49" t="s">
-        <v>107</v>
-      </c>
       <c r="F49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G49" t="s">
         <v>3</v>
       </c>
       <c r="H49">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I49">
         <v>0.5</v>
       </c>
       <c r="J49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K49" t="s">
         <v>5</v>
@@ -2707,7 +2701,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
-        <v>2000110001</v>
+        <v>2000120013</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -2716,25 +2710,25 @@
         <v>1030050029</v>
       </c>
       <c r="D50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" t="s">
         <v>111</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>11</v>
+      </c>
+      <c r="I50">
+        <v>0.5</v>
+      </c>
+      <c r="J50" t="s">
         <v>112</v>
-      </c>
-      <c r="F50" t="s">
-        <v>111</v>
-      </c>
-      <c r="G50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50">
-        <v>15</v>
-      </c>
-      <c r="I50">
-        <v>0.5</v>
-      </c>
-      <c r="J50" t="s">
-        <v>113</v>
       </c>
       <c r="K50" t="s">
         <v>5</v>
@@ -2745,34 +2739,34 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
-        <v>2000120013</v>
+        <v>2040150001</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51">
         <v>1030050029</v>
       </c>
       <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
         <v>111</v>
       </c>
-      <c r="E51" t="s">
-        <v>112</v>
-      </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G51" t="s">
         <v>3</v>
       </c>
       <c r="H51">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>0.5</v>
       </c>
       <c r="J51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K51" t="s">
         <v>5</v>
@@ -2783,7 +2777,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
-        <v>2000110001</v>
+        <v>2000120013</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -2792,13 +2786,13 @@
         <v>1040010006</v>
       </c>
       <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" t="s">
         <v>115</v>
       </c>
-      <c r="E52" t="s">
-        <v>116</v>
-      </c>
       <c r="F52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G52" t="s">
         <v>3</v>
@@ -2810,7 +2804,7 @@
         <v>0.5</v>
       </c>
       <c r="J52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K52" t="s">
         <v>5</v>
@@ -2821,34 +2815,34 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
-        <v>2090020025</v>
+        <v>2000120013</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>1040020005</v>
       </c>
       <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" t="s">
         <v>118</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
+      <c r="I53">
+        <v>0.5</v>
+      </c>
+      <c r="J53" t="s">
         <v>119</v>
-      </c>
-      <c r="F53" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53">
-        <v>4</v>
-      </c>
-      <c r="I53">
-        <v>0.5</v>
-      </c>
-      <c r="J53" t="s">
-        <v>120</v>
       </c>
       <c r="K53" t="s">
         <v>5</v>
@@ -2859,34 +2853,34 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
-        <v>2000110001</v>
+        <v>2040150001</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C54">
         <v>1040020005</v>
       </c>
       <c r="D54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" t="s">
         <v>118</v>
       </c>
-      <c r="E54" t="s">
-        <v>119</v>
-      </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G54" t="s">
         <v>3</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>0.5</v>
       </c>
       <c r="J54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K54" t="s">
         <v>5</v>
@@ -2897,34 +2891,34 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55">
-        <v>2040120001</v>
+        <v>2090020025</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>1040020005</v>
       </c>
       <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s">
         <v>118</v>
       </c>
-      <c r="E55" t="s">
-        <v>119</v>
-      </c>
       <c r="F55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G55" t="s">
         <v>3</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I55">
         <v>0.5</v>
       </c>
       <c r="J55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K55" t="s">
         <v>5</v>
@@ -2935,22 +2929,22 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56">
-        <v>2000120013</v>
+        <v>2000110001</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>1040020005</v>
       </c>
       <c r="D56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" t="s">
         <v>118</v>
       </c>
-      <c r="E56" t="s">
-        <v>119</v>
-      </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G56" t="s">
         <v>3</v>
@@ -2962,7 +2956,7 @@
         <v>0.5</v>
       </c>
       <c r="J56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K56" t="s">
         <v>5</v>
@@ -2973,7 +2967,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57">
-        <v>2000110001</v>
+        <v>2000120013</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -2982,25 +2976,25 @@
         <v>1040040005</v>
       </c>
       <c r="D57" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" t="s">
         <v>124</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0.5</v>
+      </c>
+      <c r="J57" t="s">
         <v>125</v>
-      </c>
-      <c r="F57" t="s">
-        <v>124</v>
-      </c>
-      <c r="G57" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0.5</v>
-      </c>
-      <c r="J57" t="s">
-        <v>126</v>
       </c>
       <c r="K57" t="s">
         <v>5</v>
@@ -3014,19 +3008,19 @@
         <v>2090020006</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58">
         <v>1040060003</v>
       </c>
       <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
         <v>128</v>
       </c>
-      <c r="E58" t="s">
-        <v>129</v>
-      </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G58" t="s">
         <v>3</v>
@@ -3038,18 +3032,18 @@
         <v>0.3</v>
       </c>
       <c r="K58" t="s">
+        <v>129</v>
+      </c>
+      <c r="L58" t="s">
         <v>130</v>
-      </c>
-      <c r="L58" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59">
-        <v>2000110001</v>
+        <v>2010010006</v>
       </c>
       <c r="B59" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C59">
         <v>1050030004</v>
@@ -3084,10 +3078,10 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
-        <v>2010010006</v>
+        <v>2000120013</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>1050030004</v>
@@ -3105,13 +3099,13 @@
         <v>3</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>0.5</v>
       </c>
       <c r="J60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K60" t="s">
         <v>5</v>
@@ -3125,72 +3119,72 @@
         <v>2000110001</v>
       </c>
       <c r="B61" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C61">
         <v>1050030054</v>
       </c>
       <c r="D61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" t="s">
         <v>137</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0.5</v>
+      </c>
+      <c r="J61" t="s">
         <v>138</v>
       </c>
-      <c r="F61" t="s">
-        <v>137</v>
-      </c>
-      <c r="G61" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0.5</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
+        <v>5</v>
+      </c>
+      <c r="L61" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61" t="s">
         <v>139</v>
-      </c>
-      <c r="K61" t="s">
-        <v>5</v>
-      </c>
-      <c r="L61" t="s">
-        <v>6</v>
-      </c>
-      <c r="M61" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62">
-        <v>3990030020</v>
+        <v>3070010024</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62">
         <v>1070060001</v>
       </c>
       <c r="D62" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" t="s">
         <v>142</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
         <v>143</v>
-      </c>
-      <c r="F62" t="s">
-        <v>142</v>
-      </c>
-      <c r="G62" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62">
-        <v>9</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="K62" t="s">
-        <v>144</v>
       </c>
       <c r="L62" t="s">
         <v>6</v>
@@ -3198,34 +3192,34 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63">
-        <v>3990030020</v>
+        <v>3070010024</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63">
         <v>1070060006</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
         <v>143</v>
-      </c>
-      <c r="F63" t="s">
-        <v>145</v>
-      </c>
-      <c r="G63" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>144</v>
       </c>
       <c r="L63" t="s">
         <v>6</v>
@@ -3233,22 +3227,22 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64">
-        <v>2040120001</v>
+        <v>2040150001</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C64">
         <v>1080040002</v>
       </c>
       <c r="D64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" t="s">
         <v>146</v>
       </c>
-      <c r="E64" t="s">
-        <v>147</v>
-      </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G64" t="s">
         <v>3</v>
@@ -3260,10 +3254,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
+        <v>147</v>
+      </c>
+      <c r="K64" t="s">
         <v>148</v>
-      </c>
-      <c r="K64" t="s">
-        <v>149</v>
       </c>
       <c r="L64" t="s">
         <v>6</v>
@@ -3271,7 +3265,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>2000110001</v>
+        <v>2000120013</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
@@ -3280,13 +3274,13 @@
         <v>1080050002</v>
       </c>
       <c r="D65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" t="s">
         <v>150</v>
       </c>
-      <c r="E65" t="s">
-        <v>151</v>
-      </c>
       <c r="F65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G65" t="s">
         <v>3</v>
@@ -3298,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K65" t="s">
         <v>5</v>
@@ -3309,7 +3303,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>2000110001</v>
+        <v>2000120013</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -3318,13 +3312,13 @@
         <v>1080060001</v>
       </c>
       <c r="D66" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" t="s">
         <v>153</v>
       </c>
-      <c r="E66" t="s">
-        <v>154</v>
-      </c>
       <c r="F66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G66" t="s">
         <v>3</v>
@@ -3336,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K66" t="s">
         <v>5</v>
@@ -3347,22 +3341,22 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>2040120001</v>
+        <v>2040150001</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C67">
         <v>1080090007</v>
       </c>
       <c r="D67" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" t="s">
         <v>156</v>
       </c>
-      <c r="E67" t="s">
-        <v>157</v>
-      </c>
       <c r="F67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G67" t="s">
         <v>3</v>
@@ -3374,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K67" t="s">
         <v>5</v>
@@ -3385,22 +3379,22 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>3990030020</v>
+        <v>3070010024</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68">
         <v>1110030010</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G68" t="s">
         <v>3</v>
@@ -3412,7 +3406,7 @@
         <v>0.3</v>
       </c>
       <c r="K68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L68" t="s">
         <v>6</v>
@@ -3420,7 +3414,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>2000110001</v>
+        <v>2000120013</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
@@ -3429,25 +3423,25 @@
         <v>1120010007</v>
       </c>
       <c r="D69" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0.5</v>
+      </c>
+      <c r="J69" t="s">
         <v>161</v>
-      </c>
-      <c r="E69" t="s">
-        <v>162</v>
-      </c>
-      <c r="F69" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0.5</v>
-      </c>
-      <c r="J69" t="s">
-        <v>163</v>
       </c>
       <c r="K69" t="s">
         <v>5</v>
